--- a/Naukri/data/NaukriCredentials.xlsx
+++ b/Naukri/data/NaukriCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13635" windowHeight="1410"/>
   </bookViews>
   <sheets>
     <sheet name="Credential" sheetId="1" r:id="rId1"/>
@@ -12,28 +12,20 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Email Address</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>lookingforjob16</t>
-  </si>
-  <si>
-    <t>Doc</t>
   </si>
   <si>
     <t>geethadesai2285@gmail.com</t>
   </si>
   <si>
-    <t>./driver/Geetha_Desai_Automation_4yrs</t>
+    <t>C:\Users\Geetu\git\Naukri\Naukri\data\Geetha_Desai_Automation_4yrs.docx</t>
   </si>
 </sst>
 </file>
@@ -378,47 +370,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Naukri/data/NaukriCredentials.xlsx
+++ b/Naukri/data/NaukriCredentials.xlsx
@@ -19,13 +19,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>lookingforjob16</t>
+    <t>qatestbn@gmail.com</t>
   </si>
   <si>
-    <t>geethadesai2285@gmail.com</t>
+    <t>barnesandnobles</t>
   </si>
   <si>
-    <t>C:\Users\Geetu\git\Naukri\Naukri\data\Geetha_Desai_Automation_4yrs.docx</t>
+    <t>C:\Users\Geetu\git\Naukri\Naukri\data\MyCV.docx</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -384,10 +384,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
